--- a/amazon_reviews_Consolidated.xlsx
+++ b/amazon_reviews_Consolidated.xlsx
@@ -2741,9 +2741,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2772,19 +2769,22 @@
       </border>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2814,7 +2814,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E472" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E472" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8">
   <autoFilter ref="A1:E472"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name" dataDxfId="6"/>
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>0.59519999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.96809999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>-0.79059999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>0.76100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>0.85550000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>-0.62490000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>-0.72189999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>-0.85550000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>-0.4627</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>0.88949999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>0.31819999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>-0.20230000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0.95930000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>-0.50949999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>0.69079999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0.63219999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>0.64859999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0.2732</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>-0.2263</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0.76959999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>50</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0.47539999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>-0.73509999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>-0.2732</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>56</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>-0.58589999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>-0.40189999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>-0.44040000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>66</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>-0.42149999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>70</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>-0.872</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.70789999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>-0.57189999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>76</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0.85189999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>78</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>-0.1027</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>82</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>-0.7964</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>86</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>90</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>-0.52669999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>-0.5423</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>74</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>-0.64859999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>98</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>-0.44040000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0.69079999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>-0.5423</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>22</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0.36120000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>107</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0.32519999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>109</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>-0.40189999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>111</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>-0.68079999999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>113</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>-0.29599999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>74</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>116</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>118</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>120</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>122</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>124</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>127</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>-0.20230000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>129</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>-0.40189999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>131</v>
       </c>
@@ -4283,7 +4283,7 @@
         <v>-0.5423</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>133</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0.72689999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>135</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>137</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>-0.5423</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>22</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>140</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>22</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>-0.45879999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>143</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>145</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>-0.44040000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>147</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>-0.86250000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>149</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>-0.45879999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>151</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>153</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>155</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>0.68679999999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>157</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>-0.38179999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>159</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>160</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>162</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>-0.5423</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>22</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>-0.44040000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>165</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>-0.72689999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>167</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>169</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>0.45450000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>171</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>-0.59940000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>173</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>0.54010000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>175</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>-0.83960000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>177</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>179</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>180</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>182</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>-0.19789999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>184</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>186</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>0.81259999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>188</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>0.69079999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>190</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>-0.9577</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>193</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>-0.73780000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>195</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>0.64859999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>197</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>-0.51060000000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>199</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>-0.3125</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>201</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>22</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>-2.58E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>204</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>0.2732</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>206</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>0.15110000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>208</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>210</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>74</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>-0.1779</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>213</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>215</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>217</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>219</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>221</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>223</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>225</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>227</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0.2732</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>229</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>231</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>233</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>235</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>237</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>239</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>241</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>-0.36120000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>243</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>0.2732</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>245</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>-0.4173</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>247</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>22</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>250</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>-0.52669999999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>8731021068</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0.45879999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>253</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>-0.86219999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>255</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>257</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>259</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>0.91690000000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>261</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>-0.61890000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>263</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>265</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>-0.5423</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>267</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>269</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>-7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>271</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>-0.2732</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>273</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0.94510000000000005</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>275</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>0.84019999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>22</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>0.6996</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>278</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>280</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>0.63690000000000002</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>282</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>284</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>286</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>288</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>290</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>0.92120000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>292</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>294</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>-0.62490000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>296</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>297</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>-0.84419999999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>299</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>-0.60409999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>301</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>-0.75790000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>303</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>305</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>0.31819999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>307</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>-0.57189999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>309</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>-5.16E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>311</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>313</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>315</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0.97709999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>317</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>-0.55740000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>319</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>-0.57189999999999996</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>321</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>323</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0.85770000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>325</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>327</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0.64859999999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>329</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>331</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>333</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>-0.2263</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>335</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>337</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>0.21410000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="360" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>74</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>0.98860000000000003</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>341</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>343</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>0.95660000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>345</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>0.15310000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>347</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>0.74629999999999996</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>74</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>0.88680000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>350</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>-0.40189999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>352</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>0.73509999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>354</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>356</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>0.49390000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>358</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>360</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0.72689999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>362</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>364</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>0.36120000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>366</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>-0.58589999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>368</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>370</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>-0.62490000000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>372</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>374</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>376</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>0.36120000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>378</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>380</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>382</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>22</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>384</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>386</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>388</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>389</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>0.92679999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>391</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>393</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0.65969999999999995</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>395</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>0.49390000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>397</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0.63690000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>399</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>400</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>0.85909999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>402</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0.54110000000000003</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>404</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>0.98029999999999995</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>406</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>0.83299999999999996</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>408</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0.74850000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>410</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>0.1739</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>9717194727</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>0.67049999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>413</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>0.8397</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>415</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>0.99439999999999995</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>417</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>419</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>0.98640000000000005</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>421</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>-0.57709999999999995</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>423</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>424</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>22</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>427</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>0.63690000000000002</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>429</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>431</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0.55740000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>433</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>0.49390000000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>435</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>437</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>439</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>441</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>-0.16059999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>443</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>22</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>0.74929999999999997</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>446</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>0.7964</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>22</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0.82250000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>449</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>0.5423</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>451</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>-0.40189999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>453</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>455</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>2.58E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>457</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>0.48039999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>459</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>461</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>463</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>-0.68010000000000004</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>465</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>0.57189999999999996</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>467</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>0.69079999999999997</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>469</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>471</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>22</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>0.80200000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>474</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>476</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>478</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0.20230000000000001</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>480</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>482</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>0.85189999999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>484</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>485</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>487</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>489</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>491</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>-0.47670000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>493</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>495</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>497</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>499</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>0.56879999999999997</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>501</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0.61240000000000006</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>503</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>0.69079999999999997</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>505</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>-0.51060000000000005</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>507</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>0.5423</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>509</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>511</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>513</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>514</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>0.99719999999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>521</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>0.99450000000000005</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>523</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>0.53169999999999995</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>74</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>526</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>0.61240000000000006</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>528</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>-0.15310000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>74</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0.47539999999999999</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>531</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>533</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>0.99719999999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>537</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>0.95089999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>539</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>0.94850000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>541</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>543</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>0.45879999999999999</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>545</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>547</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>549</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>551</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>0.77829999999999999</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>553</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0.63690000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>555</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>556</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>557</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>559</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>561</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>563</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>565</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>566</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>0.63690000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>568</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>569</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>0.99650000000000005</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>571</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>573</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>0.91859999999999997</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>575</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>0.4199</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>577</v>
       </c>
@@ -8305,7 +8305,7 @@
         <v>0.57189999999999996</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>579</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>581</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>583</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>0.2263</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>22</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>586</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>0.71840000000000004</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>588</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>-7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>590</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>592</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>0.91180000000000005</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>594</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>0.68079999999999996</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>596</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>597</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>599</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>601</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>-0.59940000000000004</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>603</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>605</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>607</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>0.82250000000000001</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>609</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>610</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>0.95309999999999995</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>612</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0.95879999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>614</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>-0.1779</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>616</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>617</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>618</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>620</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>622</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>624</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>0.88070000000000004</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>626</v>
       </c>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>627</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0.43740000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>629</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>631</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>0.31819999999999998</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>633</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>635</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>637</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>639</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>0.77170000000000005</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>641</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>-5.16E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>643</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>645</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>647</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>648</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>22</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>0.93489999999999995</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>650</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>0.55740000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>74</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>652</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>653</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>0.80740000000000001</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>655</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>657</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>659</v>
       </c>
@@ -9092,7 +9092,7 @@
         <v>0.63690000000000002</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>661</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>663</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>-0.5423</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>665</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>22</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>-0.1027</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>668</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>0.49390000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>670</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>672</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>0.9274</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>674</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>676</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>0.82250000000000001</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>678</v>
       </c>
@@ -9262,7 +9262,7 @@
         <v>-0.62580000000000002</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>680</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0.15959999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>682</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>-0.128</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>684</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>685</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>687</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>688</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>689</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>690</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>691</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>693</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>696</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>0.9546</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>698</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>700</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>-2.58E-2</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>702</v>
       </c>
@@ -9490,7 +9490,7 @@
         <v>0.71440000000000003</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>704</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>0.95650000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>706</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>74</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>235</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>0.85909999999999997</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>710</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>0.98440000000000005</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>288</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>0.88619999999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>713</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>0.98760000000000003</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>715</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>0.9819</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>717</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0.94030000000000002</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>719</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>0.97009999999999996</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>721</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>0.99050000000000005</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>723</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>0.97729999999999995</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>725</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>0.95709999999999995</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>727</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>0.96860000000000002</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>729</v>
       </c>
@@ -9745,7 +9745,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>731</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>0.88239999999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>733</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>0.95950000000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>735</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>0.9819</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>737</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>0.95450000000000002</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>739</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>0.98450000000000004</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>741</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>0.96109999999999995</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>743</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>0.84419999999999995</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>745</v>
       </c>
@@ -9881,7 +9881,7 @@
         <v>0.57189999999999996</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>747</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>0.84419999999999995</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>749</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>22</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>0.95650000000000002</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>752</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>0.95009999999999994</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>754</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>756</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>758</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>0.86580000000000001</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>760</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>0.97609999999999997</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>762</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>0.9738</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>764</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>0.76270000000000004</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>766</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>0.95479999999999998</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>768</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>7.7200000000000005E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>770</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>0.73509999999999998</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>772</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>774</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>0.87480000000000002</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>776</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>0.92010000000000003</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>778</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>0.58589999999999998</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="330" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>780</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>0.61240000000000006</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>782</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>0.95509999999999995</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>784</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>0.89080000000000004</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>421</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>0.75549999999999995</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>787</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>74</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>0.88339999999999996</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="405" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>74</v>
       </c>
@@ -10289,7 +10289,7 @@
         <v>0.93100000000000005</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>791</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>0.96009999999999995</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>793</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>0.77780000000000005</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>795</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>0.92010000000000003</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>797</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>0.97709999999999997</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>799</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>0.95589999999999997</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>801</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>803</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>0.63690000000000002</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>805</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>0.872</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>807</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>809</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>-0.44040000000000001</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>811</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>813</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>815</v>
       </c>
@@ -10510,7 +10510,7 @@
         <v>0.40189999999999998</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>817</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>819</v>
       </c>
@@ -10544,7 +10544,7 @@
         <v>0.9173</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>821</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>823</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>0.61240000000000006</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>825</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>827</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>0.91839999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>829</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>0.55740000000000001</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>831</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>74</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>834</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>0.49270000000000003</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>836</v>
       </c>
@@ -10697,7 +10697,7 @@
         <v>0.73509999999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>838</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>0.62490000000000001</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>840</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>0.92259999999999998</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>842</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>0.83599999999999997</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="345" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>844</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>0.90010000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>846</v>
       </c>
@@ -10782,7 +10782,7 @@
         <v>0.79059999999999997</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>848</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>850</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>0.9274</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>852</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>0.68079999999999996</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>74</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>855</v>
       </c>
@@ -10867,7 +10867,7 @@
         <v>0.87790000000000001</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>857</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>0.9274</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>859</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0.71840000000000004</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>861</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>0.42149999999999999</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>863</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0.84019999999999995</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>865</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>0.91830000000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>867</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>0.70030000000000003</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>869</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>871</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>0.56220000000000003</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>873</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>875</v>
       </c>
@@ -11037,7 +11037,7 @@
         <v>0.85189999999999999</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>877</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>0.77170000000000005</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>879</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>0.79059999999999997</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>881</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>0.65969999999999995</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>883</v>
       </c>
